--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,6 +1056,110 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dsfsd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ib@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Data Visualization, Pytorch, Sql, Machine Learning, Python, Big Data, Tensorflow</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-01-26 10:39:28</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q: Handle missing data techniques
+A: dfg d
+Q: Cross-validation methods
+A: g 
+Q: Describe complex data analysis project
+A: df 
+Q: Stay updated with DS trends
+A: df 
+Q: Explain bias-variance tradeoff
+A: df </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>7234f91c-7482-47d9-9870-8cc7ffad8d6b</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dsfsd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ib@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Data Visualization, Pytorch, Sql, Machine Learning, Python, Big Data, Tensorflow</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-01-26 10:39:31</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q: Handle missing data techniques
+A: dfg d
+Q: Cross-validation methods
+A: g 
+Q: Describe complex data analysis project
+A: df 
+Q: Stay updated with DS trends
+A: df 
+Q: Explain bias-variance tradeoff
+A: df </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>7234f91c-7482-47d9-9870-8cc7ffad8d6b</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
